--- a/EFMs3-DO.xlsx
+++ b/EFMs3-DO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\Lynd Lab research\Ctherm CBP project\thermodynamic analysis with Satya 11-30-2018\Ctherm_thermo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F210C775-AE93-406D-AF95-49792ECF12E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968D8138-77C1-4072-8CE9-93238EF99218}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33300" yWindow="456" windowWidth="25356" windowHeight="15876" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -414,7 +414,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -14136,314 +14142,293 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AS471"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AS1933"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="BA1940" sqref="BA1940"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="6"/>
-    <col min="2" max="2" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="10.77734375" style="6"/>
-    <col min="19" max="19" width="19" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="34" width="10.77734375" style="6"/>
-    <col min="35" max="35" width="17.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.77734375" style="6"/>
-    <col min="37" max="37" width="25.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="6.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="5.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="32.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="45" width="3.88671875" style="6" customWidth="1"/>
     <col min="46" max="16384" width="10.77734375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:45" s="7" customFormat="1" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AB2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AC2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AD2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AE2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AG2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AH2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AI2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AK2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AL2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AM2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AN2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AO2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AP2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AR2" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:45" s="8" customFormat="1" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Y3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="Z3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AA3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AB3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AC3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AD3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AE3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AF3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AG3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AH3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AI3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AJ3" s="7" t="s">
+      <c r="AJ3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AK3" s="7" t="s">
+      <c r="AK3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AL3" s="7" t="s">
+      <c r="AL3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AM3" s="7" t="s">
+      <c r="AM3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AN3" s="7" t="s">
+      <c r="AN3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="AO3" s="7" t="s">
+      <c r="AO3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AP3" s="7" t="s">
+      <c r="AP3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AQ3" s="7" t="s">
+      <c r="AQ3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AR3" s="7" t="s">
+      <c r="AR3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="AS3" s="7" t="s">
+      <c r="AS3" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -14580,7 +14565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -14717,7 +14702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -14854,7 +14839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -14991,7 +14976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -15128,7 +15113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -15265,7 +15250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -15402,7 +15387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -15539,7 +15524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -15676,7 +15661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -15813,7 +15798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -15950,7 +15935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -16087,7 +16072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -16224,7 +16209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -16361,7 +16346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -16498,7 +16483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -16635,7 +16620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -16772,7 +16757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -16909,7 +16894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -17046,7 +17031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -17183,7 +17168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -17320,7 +17305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>22</v>
       </c>
@@ -17457,7 +17442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>23</v>
       </c>
@@ -17594,7 +17579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>24</v>
       </c>
@@ -17731,7 +17716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>25</v>
       </c>
@@ -17868,7 +17853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>26</v>
       </c>
@@ -18005,7 +17990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>27</v>
       </c>
@@ -18142,7 +18127,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>28</v>
       </c>
@@ -18279,7 +18264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>29</v>
       </c>
@@ -18416,7 +18401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>30</v>
       </c>
@@ -18553,7 +18538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>31</v>
       </c>
@@ -18690,7 +18675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>32</v>
       </c>
@@ -18827,7 +18812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>33</v>
       </c>
@@ -18964,7 +18949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>34</v>
       </c>
@@ -19101,7 +19086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>35</v>
       </c>
@@ -19238,7 +19223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>36</v>
       </c>
@@ -19375,7 +19360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>37</v>
       </c>
@@ -19512,7 +19497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>38</v>
       </c>
@@ -19649,7 +19634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>39</v>
       </c>
@@ -19786,7 +19771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>40</v>
       </c>
@@ -19923,7 +19908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>41</v>
       </c>
@@ -20060,7 +20045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>42</v>
       </c>
@@ -20197,7 +20182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>43</v>
       </c>
@@ -20334,7 +20319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>44</v>
       </c>
@@ -20471,7 +20456,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>45</v>
       </c>
@@ -20608,7 +20593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>46</v>
       </c>
@@ -20745,7 +20730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>47</v>
       </c>
@@ -20882,7 +20867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>48</v>
       </c>
@@ -21019,7 +21004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>49</v>
       </c>
@@ -21156,7 +21141,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>50</v>
       </c>
@@ -21293,7 +21278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>51</v>
       </c>
@@ -21430,7 +21415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>52</v>
       </c>
@@ -21567,7 +21552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>53</v>
       </c>
@@ -21704,7 +21689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>54</v>
       </c>
@@ -21841,7 +21826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>55</v>
       </c>
@@ -21978,7 +21963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>56</v>
       </c>
@@ -22115,7 +22100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>57</v>
       </c>
@@ -22252,7 +22237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>58</v>
       </c>
@@ -22389,7 +22374,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>59</v>
       </c>
@@ -22526,7 +22511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>60</v>
       </c>
@@ -22663,7 +22648,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>61</v>
       </c>
@@ -22800,7 +22785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>62</v>
       </c>
@@ -22937,7 +22922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>63</v>
       </c>
@@ -23074,7 +23059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>64</v>
       </c>
@@ -23211,7 +23196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>65</v>
       </c>
@@ -23348,7 +23333,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>66</v>
       </c>
@@ -23485,7 +23470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>67</v>
       </c>
@@ -23622,7 +23607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>68</v>
       </c>
@@ -23759,7 +23744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>69</v>
       </c>
@@ -23896,7 +23881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>70</v>
       </c>
@@ -24033,7 +24018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>71</v>
       </c>
@@ -24170,7 +24155,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>72</v>
       </c>
@@ -24307,7 +24292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>73</v>
       </c>
@@ -24444,7 +24429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>74</v>
       </c>
@@ -24581,7 +24566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>75</v>
       </c>
@@ -24718,7 +24703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>76</v>
       </c>
@@ -24855,7 +24840,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>77</v>
       </c>
@@ -24992,7 +24977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>78</v>
       </c>
@@ -25129,7 +25114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>79</v>
       </c>
@@ -25266,7 +25251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>80</v>
       </c>
@@ -25403,7 +25388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>81</v>
       </c>
@@ -25540,7 +25525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>82</v>
       </c>
@@ -25677,7 +25662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>83</v>
       </c>
@@ -25814,7 +25799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>84</v>
       </c>
@@ -25951,7 +25936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>85</v>
       </c>
@@ -26088,7 +26073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>86</v>
       </c>
@@ -26225,7 +26210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>87</v>
       </c>
@@ -26362,7 +26347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>88</v>
       </c>
@@ -26499,7 +26484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>89</v>
       </c>
@@ -26636,7 +26621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>90</v>
       </c>
@@ -26773,7 +26758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>91</v>
       </c>
@@ -26910,7 +26895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>92</v>
       </c>
@@ -27047,7 +27032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>93</v>
       </c>
@@ -27184,7 +27169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>94</v>
       </c>
@@ -27321,7 +27306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>95</v>
       </c>
@@ -27458,7 +27443,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>96</v>
       </c>
@@ -27595,7 +27580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>97</v>
       </c>
@@ -27732,7 +27717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>98</v>
       </c>
@@ -27869,7 +27854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>99</v>
       </c>
@@ -28006,7 +27991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>100</v>
       </c>
@@ -28143,7 +28128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>101</v>
       </c>
@@ -28280,7 +28265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>102</v>
       </c>
@@ -28417,7 +28402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>103</v>
       </c>
@@ -28554,7 +28539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>104</v>
       </c>
@@ -28691,7 +28676,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>105</v>
       </c>
@@ -28828,7 +28813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>106</v>
       </c>
@@ -28965,7 +28950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>107</v>
       </c>
@@ -29102,7 +29087,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>108</v>
       </c>
@@ -29239,7 +29224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>109</v>
       </c>
@@ -29376,7 +29361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>110</v>
       </c>
@@ -29513,7 +29498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>111</v>
       </c>
@@ -29650,7 +29635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>112</v>
       </c>
@@ -29787,7 +29772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>113</v>
       </c>
@@ -29924,7 +29909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>114</v>
       </c>
@@ -30061,7 +30046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>115</v>
       </c>
@@ -30198,7 +30183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>116</v>
       </c>
@@ -30335,7 +30320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>117</v>
       </c>
@@ -30472,7 +30457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>118</v>
       </c>
@@ -30609,7 +30594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>119</v>
       </c>
@@ -30746,7 +30731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>120</v>
       </c>
@@ -30883,7 +30868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>121</v>
       </c>
@@ -31020,7 +31005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>122</v>
       </c>
@@ -31157,7 +31142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>123</v>
       </c>
@@ -31294,7 +31279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>124</v>
       </c>
@@ -31431,7 +31416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>125</v>
       </c>
@@ -31568,7 +31553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>126</v>
       </c>
@@ -31705,7 +31690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>127</v>
       </c>
@@ -31842,7 +31827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>128</v>
       </c>
@@ -31979,7 +31964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <v>129</v>
       </c>
@@ -32116,7 +32101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
         <v>130</v>
       </c>
@@ -32253,7 +32238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>131</v>
       </c>
@@ -32390,7 +32375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>132</v>
       </c>
@@ -32527,7 +32512,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>133</v>
       </c>
@@ -32664,7 +32649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>134</v>
       </c>
@@ -32801,7 +32786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>135</v>
       </c>
@@ -32938,7 +32923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <v>136</v>
       </c>
@@ -33075,7 +33060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <v>137</v>
       </c>
@@ -33212,7 +33197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <v>138</v>
       </c>
@@ -33349,7 +33334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>139</v>
       </c>
@@ -33486,7 +33471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <v>140</v>
       </c>
@@ -33623,7 +33608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <v>141</v>
       </c>
@@ -33760,7 +33745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <v>142</v>
       </c>
@@ -33897,7 +33882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>143</v>
       </c>
@@ -34034,7 +34019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <v>144</v>
       </c>
@@ -34171,7 +34156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <v>145</v>
       </c>
@@ -34308,7 +34293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>146</v>
       </c>
@@ -34445,7 +34430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <v>147</v>
       </c>
@@ -34582,7 +34567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>148</v>
       </c>
@@ -34719,7 +34704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <v>149</v>
       </c>
@@ -34856,7 +34841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <v>150</v>
       </c>
@@ -34993,7 +34978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6">
         <v>151</v>
       </c>
@@ -35130,7 +35115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>152</v>
       </c>
@@ -35267,7 +35252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6">
         <v>153</v>
       </c>
@@ -35404,7 +35389,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
         <v>154</v>
       </c>
@@ -35541,7 +35526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6">
         <v>155</v>
       </c>
@@ -35678,7 +35663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6">
         <v>156</v>
       </c>
@@ -35815,7 +35800,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6">
         <v>157</v>
       </c>
@@ -35952,7 +35937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="6">
         <v>158</v>
       </c>
@@ -36089,7 +36074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="6">
         <v>159</v>
       </c>
@@ -36226,7 +36211,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
         <v>160</v>
       </c>
@@ -36363,7 +36348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="6">
         <v>161</v>
       </c>
@@ -36500,7 +36485,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="6">
         <v>162</v>
       </c>
@@ -36637,7 +36622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="6">
         <v>163</v>
       </c>
@@ -36774,7 +36759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <v>164</v>
       </c>
@@ -36911,7 +36896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6">
         <v>165</v>
       </c>
@@ -37048,7 +37033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="6">
         <v>166</v>
       </c>
@@ -37185,7 +37170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="6">
         <v>167</v>
       </c>
@@ -37322,7 +37307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
         <v>168</v>
       </c>
@@ -37459,7 +37444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="6">
         <v>169</v>
       </c>
@@ -37596,7 +37581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6">
         <v>170</v>
       </c>
@@ -37733,7 +37718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6">
         <v>171</v>
       </c>
@@ -37870,7 +37855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6">
         <v>172</v>
       </c>
@@ -38007,7 +37992,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6">
         <v>173</v>
       </c>
@@ -38144,7 +38129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6">
         <v>174</v>
       </c>
@@ -38281,7 +38266,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6">
         <v>175</v>
       </c>
@@ -38418,7 +38403,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6">
         <v>176</v>
       </c>
@@ -38555,7 +38540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6">
         <v>177</v>
       </c>
@@ -38692,7 +38677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6">
         <v>178</v>
       </c>
@@ -38829,7 +38814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6">
         <v>179</v>
       </c>
@@ -38966,7 +38951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6">
         <v>180</v>
       </c>
@@ -39103,7 +39088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6">
         <v>181</v>
       </c>
@@ -39240,7 +39225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="6">
         <v>182</v>
       </c>
@@ -39377,7 +39362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6">
         <v>183</v>
       </c>
@@ -39514,7 +39499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6">
         <v>184</v>
       </c>
@@ -39651,7 +39636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6">
         <v>185</v>
       </c>
@@ -39788,7 +39773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="6">
         <v>186</v>
       </c>
@@ -39925,7 +39910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="6">
         <v>187</v>
       </c>
@@ -40062,7 +40047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="6">
         <v>188</v>
       </c>
@@ -40199,7 +40184,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6">
         <v>189</v>
       </c>
@@ -40336,7 +40321,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6">
         <v>190</v>
       </c>
@@ -40473,7 +40458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6">
         <v>191</v>
       </c>
@@ -40610,7 +40595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6">
         <v>192</v>
       </c>
@@ -40747,7 +40732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6">
         <v>193</v>
       </c>
@@ -40884,7 +40869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6">
         <v>194</v>
       </c>
@@ -41021,7 +41006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6">
         <v>195</v>
       </c>
@@ -41158,7 +41143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6">
         <v>196</v>
       </c>
@@ -41295,7 +41280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6">
         <v>197</v>
       </c>
@@ -41432,7 +41417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6">
         <v>198</v>
       </c>
@@ -41569,7 +41554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6">
         <v>199</v>
       </c>
@@ -41706,7 +41691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6">
         <v>200</v>
       </c>
@@ -41843,7 +41828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6">
         <v>201</v>
       </c>
@@ -41980,7 +41965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6">
         <v>202</v>
       </c>
@@ -42117,7 +42102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6">
         <v>203</v>
       </c>
@@ -42254,7 +42239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="6">
         <v>204</v>
       </c>
@@ -42391,7 +42376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="208" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="6">
         <v>205</v>
       </c>
@@ -42528,7 +42513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="6">
         <v>206</v>
       </c>
@@ -42665,7 +42650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="6">
         <v>207</v>
       </c>
@@ -42802,7 +42787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6">
         <v>208</v>
       </c>
@@ -42939,7 +42924,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="212" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="6">
         <v>209</v>
       </c>
@@ -43076,7 +43061,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="213" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="6">
         <v>210</v>
       </c>
@@ -43213,7 +43198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="214" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="6">
         <v>211</v>
       </c>
@@ -43350,7 +43335,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="215" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="6">
         <v>212</v>
       </c>
@@ -43487,7 +43472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="6">
         <v>213</v>
       </c>
@@ -43624,7 +43609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="6">
         <v>214</v>
       </c>
@@ -43761,7 +43746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="6">
         <v>215</v>
       </c>
@@ -43898,7 +43883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="219" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="6">
         <v>216</v>
       </c>
@@ -44035,7 +44020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="6">
         <v>217</v>
       </c>
@@ -44172,7 +44157,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="6">
         <v>218</v>
       </c>
@@ -44309,7 +44294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="6">
         <v>219</v>
       </c>
@@ -44446,7 +44431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="6">
         <v>220</v>
       </c>
@@ -44583,7 +44568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="224" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="6">
         <v>221</v>
       </c>
@@ -44720,7 +44705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="6">
         <v>222</v>
       </c>
@@ -44857,7 +44842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="226" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="6">
         <v>223</v>
       </c>
@@ -44994,7 +44979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="227" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="6">
         <v>224</v>
       </c>
@@ -45131,7 +45116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="6">
         <v>225</v>
       </c>
@@ -45268,7 +45253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="229" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="6">
         <v>226</v>
       </c>
@@ -45405,7 +45390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="6">
         <v>227</v>
       </c>
@@ -45542,7 +45527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="231" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="6">
         <v>228</v>
       </c>
@@ -45679,7 +45664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="232" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="6">
         <v>229</v>
       </c>
@@ -45816,7 +45801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="233" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="6">
         <v>230</v>
       </c>
@@ -45953,7 +45938,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="6">
         <v>231</v>
       </c>
@@ -46090,7 +46075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="235" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="6">
         <v>232</v>
       </c>
@@ -46227,7 +46212,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="236" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="6">
         <v>233</v>
       </c>
@@ -46364,7 +46349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="237" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="6">
         <v>234</v>
       </c>
@@ -46501,7 +46486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="238" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="6">
         <v>235</v>
       </c>
@@ -46638,7 +46623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="239" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="6">
         <v>236</v>
       </c>
@@ -46775,7 +46760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="6">
         <v>237</v>
       </c>
@@ -46912,7 +46897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="241" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6">
         <v>238</v>
       </c>
@@ -47049,7 +47034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="242" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="6">
         <v>239</v>
       </c>
@@ -47186,7 +47171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="243" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="6">
         <v>240</v>
       </c>
@@ -47323,7 +47308,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="244" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="6">
         <v>241</v>
       </c>
@@ -47460,7 +47445,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="245" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="6">
         <v>242</v>
       </c>
@@ -47597,7 +47582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="246" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="6">
         <v>243</v>
       </c>
@@ -47734,7 +47719,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="247" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="6">
         <v>244</v>
       </c>
@@ -47871,7 +47856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="248" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="6">
         <v>245</v>
       </c>
@@ -48008,7 +47993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="249" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="6">
         <v>246</v>
       </c>
@@ -48145,7 +48130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="250" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="6">
         <v>247</v>
       </c>
@@ -48282,7 +48267,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="251" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="6">
         <v>248</v>
       </c>
@@ -48419,7 +48404,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="252" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="6">
         <v>249</v>
       </c>
@@ -48556,7 +48541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="253" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="6">
         <v>250</v>
       </c>
@@ -48693,7 +48678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="254" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="6">
         <v>251</v>
       </c>
@@ -48830,7 +48815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="255" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="6">
         <v>252</v>
       </c>
@@ -48967,7 +48952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="256" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="6">
         <v>253</v>
       </c>
@@ -49104,7 +49089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="257" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="6">
         <v>254</v>
       </c>
@@ -49241,7 +49226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="258" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="6">
         <v>255</v>
       </c>
@@ -49378,7 +49363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="259" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="6">
         <v>256</v>
       </c>
@@ -49515,7 +49500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="260" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="6">
         <v>257</v>
       </c>
@@ -49652,7 +49637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="261" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="6">
         <v>258</v>
       </c>
@@ -49789,7 +49774,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="262" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="6">
         <v>259</v>
       </c>
@@ -49926,7 +49911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="263" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="6">
         <v>260</v>
       </c>
@@ -50063,7 +50048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="264" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="6">
         <v>261</v>
       </c>
@@ -50200,7 +50185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="265" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="6">
         <v>262</v>
       </c>
@@ -50337,7 +50322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="266" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="6">
         <v>263</v>
       </c>
@@ -50474,7 +50459,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="267" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="6">
         <v>264</v>
       </c>
@@ -50611,7 +50596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="268" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="6">
         <v>265</v>
       </c>
@@ -50748,7 +50733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="6">
         <v>266</v>
       </c>
@@ -50885,7 +50870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="270" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="6">
         <v>267</v>
       </c>
@@ -51022,7 +51007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="6">
         <v>268</v>
       </c>
@@ -51159,7 +51144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="272" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="6">
         <v>269</v>
       </c>
@@ -51296,7 +51281,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="273" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="6">
         <v>270</v>
       </c>
@@ -51433,7 +51418,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="274" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="6">
         <v>271</v>
       </c>
@@ -51570,7 +51555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="275" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="6">
         <v>272</v>
       </c>
@@ -51707,7 +51692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="276" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="6">
         <v>273</v>
       </c>
@@ -51844,7 +51829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="277" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="6">
         <v>274</v>
       </c>
@@ -51981,7 +51966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="6">
         <v>275</v>
       </c>
@@ -52118,7 +52103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="279" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="6">
         <v>276</v>
       </c>
@@ -52255,7 +52240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="280" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="6">
         <v>277</v>
       </c>
@@ -52392,7 +52377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="281" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="6">
         <v>278</v>
       </c>
@@ -52529,7 +52514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="282" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="6">
         <v>279</v>
       </c>
@@ -52666,7 +52651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="283" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="6">
         <v>280</v>
       </c>
@@ -52803,7 +52788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="284" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="6">
         <v>281</v>
       </c>
@@ -52940,7 +52925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="285" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="6">
         <v>282</v>
       </c>
@@ -53077,7 +53062,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="6">
         <v>283</v>
       </c>
@@ -53214,7 +53199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="287" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="6">
         <v>284</v>
       </c>
@@ -53351,7 +53336,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="288" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="6">
         <v>285</v>
       </c>
@@ -53488,7 +53473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="289" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="6">
         <v>286</v>
       </c>
@@ -53625,7 +53610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="290" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="6">
         <v>287</v>
       </c>
@@ -53762,7 +53747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="291" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="6">
         <v>288</v>
       </c>
@@ -53899,7 +53884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="6">
         <v>289</v>
       </c>
@@ -54036,7 +54021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="6">
         <v>290</v>
       </c>
@@ -54173,7 +54158,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="294" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="6">
         <v>291</v>
       </c>
@@ -54310,7 +54295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="295" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="6">
         <v>292</v>
       </c>
@@ -54447,7 +54432,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="296" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="6">
         <v>293</v>
       </c>
@@ -54584,7 +54569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="297" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="6">
         <v>294</v>
       </c>
@@ -54721,7 +54706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="298" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="6">
         <v>295</v>
       </c>
@@ -54858,7 +54843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="299" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="6">
         <v>296</v>
       </c>
@@ -54995,7 +54980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="300" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="6">
         <v>297</v>
       </c>
@@ -55132,7 +55117,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="301" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="6">
         <v>298</v>
       </c>
@@ -55269,7 +55254,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="302" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="6">
         <v>299</v>
       </c>
@@ -55406,7 +55391,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="303" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="6">
         <v>300</v>
       </c>
@@ -55543,7 +55528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="304" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="6">
         <v>301</v>
       </c>
@@ -55680,7 +55665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="305" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="6">
         <v>302</v>
       </c>
@@ -55817,7 +55802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="306" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="6">
         <v>303</v>
       </c>
@@ -55954,7 +55939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="307" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="6">
         <v>304</v>
       </c>
@@ -56091,7 +56076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="308" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="6">
         <v>305</v>
       </c>
@@ -56228,7 +56213,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="309" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="6">
         <v>306</v>
       </c>
@@ -56365,7 +56350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="310" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="6">
         <v>307</v>
       </c>
@@ -56502,7 +56487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="311" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="6">
         <v>308</v>
       </c>
@@ -56639,7 +56624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="312" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="6">
         <v>309</v>
       </c>
@@ -56776,7 +56761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="313" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="6">
         <v>310</v>
       </c>
@@ -56913,7 +56898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="314" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="6">
         <v>311</v>
       </c>
@@ -57050,7 +57035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="315" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="6">
         <v>312</v>
       </c>
@@ -57187,7 +57172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="316" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="6">
         <v>313</v>
       </c>
@@ -57324,7 +57309,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="317" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="6">
         <v>314</v>
       </c>
@@ -57461,7 +57446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="318" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="6">
         <v>315</v>
       </c>
@@ -57598,7 +57583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="319" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="6">
         <v>316</v>
       </c>
@@ -57735,7 +57720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="320" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="6">
         <v>317</v>
       </c>
@@ -57872,7 +57857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="321" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="6">
         <v>318</v>
       </c>
@@ -58009,7 +57994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="322" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="6">
         <v>319</v>
       </c>
@@ -58146,7 +58131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="323" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="6">
         <v>320</v>
       </c>
@@ -58283,7 +58268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="6">
         <v>321</v>
       </c>
@@ -58420,7 +58405,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="325" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="6">
         <v>322</v>
       </c>
@@ -58557,7 +58542,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="326" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="6">
         <v>323</v>
       </c>
@@ -58694,7 +58679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="327" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="6">
         <v>324</v>
       </c>
@@ -58831,7 +58816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="328" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="6">
         <v>325</v>
       </c>
@@ -58968,7 +58953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="329" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="6">
         <v>326</v>
       </c>
@@ -59105,7 +59090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="330" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="6">
         <v>327</v>
       </c>
@@ -59242,7 +59227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="331" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="6">
         <v>328</v>
       </c>
@@ -59379,7 +59364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="332" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="6">
         <v>329</v>
       </c>
@@ -59516,7 +59501,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="333" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="6">
         <v>330</v>
       </c>
@@ -59653,7 +59638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="334" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="6">
         <v>331</v>
       </c>
@@ -59790,7 +59775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="335" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="6">
         <v>332</v>
       </c>
@@ -59927,7 +59912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="336" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="6">
         <v>333</v>
       </c>
@@ -60064,7 +60049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="337" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="6">
         <v>334</v>
       </c>
@@ -60201,7 +60186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="338" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="6">
         <v>335</v>
       </c>
@@ -60338,7 +60323,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="339" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="6">
         <v>336</v>
       </c>
@@ -60475,7 +60460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="340" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="6">
         <v>337</v>
       </c>
@@ -60612,7 +60597,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="341" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="6">
         <v>338</v>
       </c>
@@ -60749,7 +60734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="342" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="6">
         <v>339</v>
       </c>
@@ -60886,7 +60871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="343" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="6">
         <v>340</v>
       </c>
@@ -61023,7 +61008,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="344" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="6">
         <v>341</v>
       </c>
@@ -61160,7 +61145,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="345" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="6">
         <v>342</v>
       </c>
@@ -61297,7 +61282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="346" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="6">
         <v>343</v>
       </c>
@@ -61434,7 +61419,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="347" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="6">
         <v>344</v>
       </c>
@@ -61571,7 +61556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="348" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="6">
         <v>345</v>
       </c>
@@ -61708,7 +61693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="349" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="6">
         <v>346</v>
       </c>
@@ -61845,7 +61830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="350" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="6">
         <v>347</v>
       </c>
@@ -61982,7 +61967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="351" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="6">
         <v>348</v>
       </c>
@@ -62119,7 +62104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="6">
         <v>349</v>
       </c>
@@ -62256,7 +62241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="353" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="6">
         <v>350</v>
       </c>
@@ -62393,7 +62378,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="354" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="6">
         <v>351</v>
       </c>
@@ -62530,7 +62515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="355" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="6">
         <v>352</v>
       </c>
@@ -62667,7 +62652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="6">
         <v>353</v>
       </c>
@@ -62804,7 +62789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="357" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="6">
         <v>354</v>
       </c>
@@ -62941,7 +62926,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="358" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="6">
         <v>355</v>
       </c>
@@ -63078,7 +63063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="359" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="6">
         <v>356</v>
       </c>
@@ -63215,7 +63200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="360" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="6">
         <v>357</v>
       </c>
@@ -63352,7 +63337,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="361" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="6">
         <v>358</v>
       </c>
@@ -63489,7 +63474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="362" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="6">
         <v>359</v>
       </c>
@@ -63626,7 +63611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="363" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="6">
         <v>360</v>
       </c>
@@ -63763,7 +63748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="364" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="6">
         <v>361</v>
       </c>
@@ -63900,7 +63885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="365" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="6">
         <v>362</v>
       </c>
@@ -64037,7 +64022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="366" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="6">
         <v>363</v>
       </c>
@@ -64174,7 +64159,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="367" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="6">
         <v>364</v>
       </c>
@@ -64311,7 +64296,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="368" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="6">
         <v>365</v>
       </c>
@@ -64448,7 +64433,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="369" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="6">
         <v>366</v>
       </c>
@@ -64585,7 +64570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="370" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="6">
         <v>367</v>
       </c>
@@ -64722,7 +64707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="371" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="6">
         <v>368</v>
       </c>
@@ -64996,7 +64981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="373" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="6">
         <v>370</v>
       </c>
@@ -65133,7 +65118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="374" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="6">
         <v>371</v>
       </c>
@@ -65270,7 +65255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="375" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="6">
         <v>372</v>
       </c>
@@ -65407,7 +65392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="376" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="6">
         <v>373</v>
       </c>
@@ -65544,7 +65529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="377" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="6">
         <v>374</v>
       </c>
@@ -65681,7 +65666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="378" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="6">
         <v>375</v>
       </c>
@@ -65818,7 +65803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="6">
         <v>376</v>
       </c>
@@ -65955,7 +65940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="6">
         <v>377</v>
       </c>
@@ -66092,7 +66077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="381" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="6">
         <v>378</v>
       </c>
@@ -66229,7 +66214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="382" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="6">
         <v>379</v>
       </c>
@@ -66366,7 +66351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="383" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="6">
         <v>380</v>
       </c>
@@ -66503,7 +66488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="384" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="6">
         <v>381</v>
       </c>
@@ -66640,7 +66625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="385" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="6">
         <v>382</v>
       </c>
@@ -66777,7 +66762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="386" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="6">
         <v>383</v>
       </c>
@@ -66914,7 +66899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="387" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="6">
         <v>384</v>
       </c>
@@ -67051,7 +67036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="388" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="6">
         <v>385</v>
       </c>
@@ -67188,7 +67173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="6">
         <v>386</v>
       </c>
@@ -67325,7 +67310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="390" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="6">
         <v>387</v>
       </c>
@@ -67462,7 +67447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="391" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="6">
         <v>388</v>
       </c>
@@ -67599,7 +67584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="392" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="6">
         <v>389</v>
       </c>
@@ -67736,7 +67721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="393" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="6">
         <v>390</v>
       </c>
@@ -67873,7 +67858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="394" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="6">
         <v>391</v>
       </c>
@@ -68010,7 +67995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="395" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="6">
         <v>392</v>
       </c>
@@ -68147,7 +68132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="396" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="6">
         <v>393</v>
       </c>
@@ -68284,7 +68269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="397" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="6">
         <v>394</v>
       </c>
@@ -68421,7 +68406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="398" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="6">
         <v>395</v>
       </c>
@@ -68558,7 +68543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="6">
         <v>396</v>
       </c>
@@ -68695,7 +68680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="400" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="6">
         <v>397</v>
       </c>
@@ -68832,7 +68817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="401" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="6">
         <v>398</v>
       </c>
@@ -68969,7 +68954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="402" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="6">
         <v>399</v>
       </c>
@@ -69106,7 +69091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="6">
         <v>400</v>
       </c>
@@ -69243,7 +69228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="404" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="6">
         <v>401</v>
       </c>
@@ -69380,7 +69365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="405" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="6">
         <v>402</v>
       </c>
@@ -69517,7 +69502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="406" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="6">
         <v>403</v>
       </c>
@@ -69654,7 +69639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="6">
         <v>404</v>
       </c>
@@ -69791,7 +69776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="408" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="6">
         <v>405</v>
       </c>
@@ -69928,7 +69913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="409" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="6">
         <v>406</v>
       </c>
@@ -70065,7 +70050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="410" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="6">
         <v>407</v>
       </c>
@@ -70202,7 +70187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="411" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="6">
         <v>408</v>
       </c>
@@ -70339,7 +70324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="412" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="6">
         <v>409</v>
       </c>
@@ -70476,7 +70461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="413" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="6">
         <v>410</v>
       </c>
@@ -70613,7 +70598,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="414" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="6">
         <v>411</v>
       </c>
@@ -70750,7 +70735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="415" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="6">
         <v>412</v>
       </c>
@@ -70887,7 +70872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="416" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="6">
         <v>413</v>
       </c>
@@ -71024,7 +71009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="417" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="6">
         <v>414</v>
       </c>
@@ -71161,7 +71146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="418" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="6">
         <v>415</v>
       </c>
@@ -71298,7 +71283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="419" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="6">
         <v>416</v>
       </c>
@@ -71435,7 +71420,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="420" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="6">
         <v>417</v>
       </c>
@@ -71572,7 +71557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="421" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="6">
         <v>418</v>
       </c>
@@ -71709,7 +71694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="422" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="6">
         <v>419</v>
       </c>
@@ -71846,7 +71831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="423" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="6">
         <v>420</v>
       </c>
@@ -71983,7 +71968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="424" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="6">
         <v>421</v>
       </c>
@@ -72120,7 +72105,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="425" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="6">
         <v>422</v>
       </c>
@@ -72257,7 +72242,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="426" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="6">
         <v>423</v>
       </c>
@@ -72394,7 +72379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="6">
         <v>424</v>
       </c>
@@ -72531,7 +72516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="428" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="6">
         <v>425</v>
       </c>
@@ -72668,7 +72653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="429" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="6">
         <v>426</v>
       </c>
@@ -72805,7 +72790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="6">
         <v>427</v>
       </c>
@@ -72942,7 +72927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="431" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="6">
         <v>428</v>
       </c>
@@ -73079,7 +73064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="432" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="6">
         <v>429</v>
       </c>
@@ -73216,7 +73201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="433" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="6">
         <v>430</v>
       </c>
@@ -73353,7 +73338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="434" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="6">
         <v>431</v>
       </c>
@@ -73490,7 +73475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="435" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="6">
         <v>432</v>
       </c>
@@ -73627,7 +73612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="436" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="6">
         <v>433</v>
       </c>
@@ -73764,7 +73749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="437" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="6">
         <v>434</v>
       </c>
@@ -73901,7 +73886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="6">
         <v>435</v>
       </c>
@@ -74038,7 +74023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="439" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="6">
         <v>436</v>
       </c>
@@ -74175,7 +74160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="440" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="6">
         <v>437</v>
       </c>
@@ -74312,7 +74297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="441" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="6">
         <v>438</v>
       </c>
@@ -74449,7 +74434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="442" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="6">
         <v>439</v>
       </c>
@@ -74586,7 +74571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="443" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="6">
         <v>440</v>
       </c>
@@ -74723,7 +74708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="444" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="6">
         <v>441</v>
       </c>
@@ -74860,7 +74845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="445" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="6">
         <v>442</v>
       </c>
@@ -74997,7 +74982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="446" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="6">
         <v>443</v>
       </c>
@@ -75134,7 +75119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="447" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="6">
         <v>444</v>
       </c>
@@ -75271,7 +75256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="448" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="6">
         <v>445</v>
       </c>
@@ -75408,7 +75393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="449" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="6">
         <v>446</v>
       </c>
@@ -75545,7 +75530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="450" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="6">
         <v>447</v>
       </c>
@@ -75682,7 +75667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="451" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="6">
         <v>448</v>
       </c>
@@ -75819,7 +75804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="452" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="6">
         <v>449</v>
       </c>
@@ -75956,7 +75941,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="453" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="6">
         <v>450</v>
       </c>
@@ -76093,7 +76078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="454" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="6">
         <v>451</v>
       </c>
@@ -76230,7 +76215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="455" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="6">
         <v>452</v>
       </c>
@@ -76367,7 +76352,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="456" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="6">
         <v>453</v>
       </c>
@@ -76504,7 +76489,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="457" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="6">
         <v>454</v>
       </c>
@@ -76641,7 +76626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="458" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="6">
         <v>455</v>
       </c>
@@ -76778,7 +76763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="459" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="6">
         <v>456</v>
       </c>
@@ -76915,7 +76900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="460" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="6">
         <v>457</v>
       </c>
@@ -77052,7 +77037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="461" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="6">
         <v>458</v>
       </c>
@@ -77189,7 +77174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="462" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="6">
         <v>459</v>
       </c>
@@ -77326,7 +77311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="463" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="6">
         <v>460</v>
       </c>
@@ -77463,7 +77448,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="464" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="6">
         <v>461</v>
       </c>
@@ -77600,7 +77585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="465" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="6">
         <v>462</v>
       </c>
@@ -77737,7 +77722,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="466" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="6">
         <v>463</v>
       </c>
@@ -77874,7 +77859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="467" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="6">
         <v>464</v>
       </c>
@@ -78011,7 +77996,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="468" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="6">
         <v>465</v>
       </c>
@@ -78148,7 +78133,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="469" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="6">
         <v>466</v>
       </c>
@@ -78285,7 +78270,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="470" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="6">
         <v>467</v>
       </c>
@@ -78422,7 +78407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="471" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="6">
         <v>468</v>
       </c>
@@ -78559,8 +78544,1523 @@
         <v>21</v>
       </c>
     </row>
+    <row r="472" spans="1:45" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="473" spans="1:45" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="474" spans="1:45" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="475" spans="1:45" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="476" spans="1:45" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="477" spans="1:45" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="478" spans="1:45" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="479" spans="1:45" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="480" spans="1:45" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="481" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="482" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="483" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="484" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="485" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="486" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="487" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="488" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="489" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="490" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="491" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="492" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="493" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="494" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="495" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="496" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="497" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="498" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="499" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="500" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="501" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="502" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="503" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="504" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="505" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="506" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="507" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="508" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="509" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="510" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="511" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="512" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="513" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="514" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="515" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="516" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="517" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="518" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="519" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="520" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="521" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="522" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="523" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="524" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="525" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="526" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="527" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="528" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="529" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="530" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="531" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="532" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="533" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="534" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="535" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="536" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="537" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="538" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="539" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="540" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="541" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="542" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="543" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="544" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="545" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="546" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="547" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="548" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="549" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="550" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="551" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="552" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="553" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="554" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="555" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="556" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="557" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="558" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="559" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="560" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="561" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="562" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="563" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="564" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="565" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="566" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="567" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="568" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="569" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="570" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="571" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="572" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="573" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="574" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="575" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="576" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="577" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="578" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="579" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="580" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="581" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="582" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="583" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="584" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="585" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="586" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="587" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="588" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="589" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="590" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="591" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="592" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="593" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="594" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="595" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="596" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="597" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="598" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="599" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="600" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="601" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="602" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="603" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="604" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="605" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="606" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="607" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="608" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="609" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="610" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="611" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="612" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="613" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="614" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="615" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="616" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="617" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="618" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="619" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="620" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="621" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="622" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="623" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="624" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="625" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="626" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="627" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="628" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="629" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="630" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="631" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="632" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="633" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="634" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="635" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="636" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="637" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="638" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="639" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="640" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="641" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="642" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="643" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="644" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="645" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="646" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="647" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="648" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="649" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="650" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="651" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="652" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="653" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="654" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="655" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="656" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="657" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="658" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="659" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="660" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="661" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="662" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="663" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="664" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="665" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="666" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="667" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="668" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="669" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="670" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="671" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="672" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="673" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="674" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="675" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="676" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="677" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="678" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="679" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="680" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="681" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="682" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="683" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="684" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="685" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="686" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="687" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="688" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="689" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="690" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="691" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="692" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="693" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="694" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="695" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="696" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="697" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="698" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="699" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="700" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="701" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="702" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="703" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="704" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="705" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="706" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="707" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="708" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="709" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="710" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="711" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="712" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="713" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="714" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="715" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="716" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="717" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="718" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="719" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="720" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="721" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="722" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="723" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="724" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="725" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="726" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="727" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="728" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="729" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="730" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="731" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="732" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="733" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="734" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="735" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="736" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="737" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="738" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="739" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="740" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="741" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="742" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="743" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="744" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="745" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="746" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="747" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="748" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="749" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="750" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="751" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="752" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="753" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="754" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="755" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="756" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="757" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="758" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="759" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="760" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="761" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="762" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="763" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="764" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="765" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="766" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="767" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="768" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="769" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="770" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="771" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="772" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="773" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="774" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="775" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="776" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="777" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="778" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="779" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="780" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="781" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="782" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="783" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="784" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="785" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="786" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="787" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="788" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="789" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="790" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="791" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="792" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="793" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="794" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="795" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="796" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="797" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="798" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="799" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="800" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="801" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="802" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="803" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="804" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="805" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="806" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="807" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="808" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="809" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="810" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="811" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="812" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="813" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="814" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="815" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="816" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="817" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="818" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="819" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="820" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="821" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="822" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="823" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="824" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="825" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="826" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="827" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="828" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="829" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="830" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="831" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="832" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="833" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="834" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="835" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="836" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="837" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="838" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="839" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="840" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="841" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="842" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="843" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="844" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="845" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="846" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="847" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="848" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="849" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="850" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="851" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="852" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="853" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="854" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="855" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="856" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="857" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="858" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="859" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="860" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="861" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="862" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="863" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="864" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="865" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="866" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="867" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="868" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="869" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="870" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="871" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="872" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="873" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="874" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="875" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="876" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="877" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="878" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="879" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="880" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="881" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="882" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="883" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="884" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="885" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="886" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="887" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="888" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="889" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="890" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="891" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="892" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="893" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="894" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="895" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="896" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="897" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="898" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="899" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="900" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="901" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="902" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="903" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="904" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="905" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="906" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="907" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="908" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="909" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="910" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="911" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="912" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="913" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="914" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="915" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="916" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="917" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="918" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="919" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="920" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="921" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="922" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="923" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="924" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="925" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="926" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="927" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="928" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="929" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="930" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="931" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="932" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="933" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="934" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="935" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="936" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="937" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="938" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="939" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="940" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="941" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="942" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="943" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="944" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="945" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="946" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="947" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="948" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="949" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="950" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="951" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="952" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="953" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="954" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="955" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="956" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="957" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="958" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="959" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="960" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="961" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="962" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="963" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="964" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="965" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="966" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="967" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="968" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="969" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="970" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="971" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="972" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="973" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="974" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="975" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="976" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="977" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="978" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="979" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="980" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="981" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="982" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="983" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="984" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="985" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="986" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="987" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="988" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="989" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="990" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="991" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="992" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="993" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="994" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="995" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="996" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="997" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="998" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="999" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1001" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1002" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1003" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1004" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1005" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1006" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1007" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1008" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1009" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1010" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1011" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1012" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1013" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1014" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1015" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1016" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1017" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1018" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1019" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1020" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1021" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1022" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1023" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1024" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1025" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1026" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1027" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1028" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1029" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1030" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1031" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1032" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1033" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1034" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1035" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1036" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1037" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1038" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1039" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1040" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1041" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1042" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1043" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1044" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1045" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1046" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1047" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1048" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1049" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1050" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1051" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1052" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1053" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1054" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1055" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1056" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1057" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1058" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1059" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1060" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1061" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1062" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1063" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1064" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1065" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1066" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1067" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1068" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1069" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1070" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1071" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1072" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1073" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1074" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1075" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1076" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1077" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1078" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1079" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1080" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1081" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1082" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1083" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1084" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1085" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1086" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1087" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1088" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1089" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1090" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1091" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1092" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1093" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1094" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1095" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1096" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1097" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1098" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1099" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1100" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1101" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1102" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1103" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1104" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1105" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1106" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1107" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1108" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1109" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1110" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1111" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1112" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1113" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1114" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1115" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1116" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1117" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1118" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1119" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1120" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1121" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1122" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1123" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1124" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1125" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1126" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1127" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1128" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1129" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1130" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1131" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1132" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1133" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1134" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1135" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1136" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1137" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1138" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1139" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1140" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1141" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1142" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1143" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1144" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1145" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1146" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1147" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1148" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1149" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1150" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1151" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1152" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1153" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1154" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1155" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1156" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1157" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1158" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1159" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1160" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1161" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1162" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1163" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1164" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1165" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1166" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1167" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1168" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1169" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1170" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1171" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1172" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1173" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1174" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1175" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1176" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1177" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1178" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1179" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1180" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1181" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1182" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1183" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1184" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1185" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1186" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1187" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1188" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1189" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1190" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1191" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1192" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1193" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1194" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1195" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1196" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1197" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1198" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1199" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1200" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1201" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1202" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1203" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1204" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1205" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1206" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1207" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1208" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1209" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1210" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1211" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1212" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1213" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1214" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1215" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1216" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1217" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1218" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1219" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1220" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1221" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1222" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1223" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1224" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1225" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1226" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1227" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1228" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1229" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1230" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1231" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1232" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1233" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1234" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1235" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1236" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1237" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1238" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1239" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1240" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1241" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1242" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1243" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1244" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1245" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1246" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1247" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1248" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1249" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1250" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1251" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1252" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1253" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1254" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1255" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1256" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1257" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1258" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1259" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1260" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1261" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1262" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1263" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1264" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1265" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1266" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1267" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1268" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1269" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1270" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1271" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1272" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1273" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1274" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1275" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1276" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1277" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1278" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1279" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1280" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1281" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1282" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1283" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1284" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1285" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1286" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1287" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1288" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1289" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1290" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1291" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1292" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1293" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1294" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1295" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1296" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1297" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1298" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1299" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1300" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1301" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1302" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1303" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1304" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1305" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1306" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1307" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1308" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1309" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1310" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1311" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1312" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1313" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1314" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1315" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1316" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1317" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1318" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1319" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1320" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1321" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1322" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1323" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1324" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1325" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1326" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1327" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1328" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1329" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1330" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1331" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1332" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1333" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1334" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1335" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1336" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1337" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1338" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1339" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1340" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1341" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1342" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1343" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1344" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1345" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1346" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1347" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1348" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1349" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1350" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1351" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1352" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1353" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1354" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1355" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1356" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1357" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1358" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1359" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1360" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1361" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1362" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1363" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1364" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1365" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1366" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1367" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1368" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1369" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1370" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1371" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1372" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1373" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1374" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1375" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1376" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1377" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1378" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1379" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1380" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1381" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1382" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1383" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1384" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1385" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1386" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1387" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1388" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1389" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1390" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1391" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1392" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1393" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1394" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1395" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1396" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1397" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1398" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1399" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1400" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1401" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1402" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1403" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1404" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1405" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1406" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1407" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1408" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1409" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1410" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1411" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1412" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1413" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1414" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1415" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1416" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1417" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1418" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1419" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1420" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1421" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1422" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1423" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1424" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1425" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1426" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1427" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1428" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1429" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1430" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1431" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1432" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1433" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1434" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1435" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1436" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1437" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1438" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1439" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1440" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1441" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1442" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1443" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1444" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1445" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1446" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1447" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1448" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1449" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1450" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1451" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1452" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1453" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1454" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1455" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1456" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1457" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1458" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1459" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1460" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1461" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1462" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1463" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1464" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1465" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1466" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1467" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1468" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1469" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1470" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1471" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1472" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1473" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1474" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1475" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1476" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1477" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1478" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1479" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1480" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1481" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1482" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1483" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1484" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1485" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1486" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1487" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1488" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1489" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1490" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1491" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1492" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1493" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1494" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1495" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1496" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1497" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1498" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1499" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1500" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1501" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1502" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1503" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1504" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1505" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1506" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1507" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1508" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1509" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1510" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1511" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1512" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1513" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1514" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1515" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1516" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1517" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1518" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1519" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1520" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1521" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1522" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1523" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1524" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1525" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1526" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1527" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1528" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1529" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1530" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1531" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1532" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1533" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1534" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1535" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1536" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1537" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1538" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1539" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1540" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1541" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1542" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1543" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1544" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1545" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1546" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1547" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1548" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1549" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1550" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1551" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1552" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1553" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1554" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1555" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1556" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1557" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1558" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1559" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1560" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1561" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1562" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1563" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1564" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1565" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1566" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1567" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1568" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1569" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1570" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1571" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1572" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1573" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1574" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1575" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1576" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1577" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1578" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1579" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1580" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1581" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1582" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1583" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1584" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1585" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1586" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1587" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1588" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1589" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1590" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1591" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1592" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1593" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1594" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1595" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1596" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1597" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1598" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1599" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1600" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1601" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1602" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1603" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1604" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1605" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1606" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1607" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1608" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1609" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1610" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1611" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1612" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1613" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1614" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1615" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1616" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1617" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1618" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1619" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1620" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1621" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1622" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1623" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1624" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1625" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1626" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1627" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1628" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1629" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1630" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1631" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1632" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1633" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1634" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1635" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1636" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1637" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1638" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1639" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1640" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1641" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1642" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1643" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1644" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1645" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1646" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1647" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1648" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1649" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1650" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1651" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1652" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1653" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1654" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1655" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1656" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1657" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1658" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1659" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1660" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1661" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1662" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1663" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1664" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1665" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1666" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1667" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1668" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1669" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1670" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1671" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1672" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1673" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1674" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1675" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1676" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1677" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1678" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1679" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1680" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1681" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1682" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1683" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1684" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1685" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1686" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1687" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1688" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1689" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1690" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1691" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1692" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1693" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1694" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1695" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1696" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1697" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1698" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1699" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1700" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1701" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1702" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1703" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1704" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1705" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1706" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1707" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1708" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1709" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1710" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1711" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1712" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1713" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1714" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1715" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1716" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1717" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1718" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1719" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1720" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1721" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1722" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1723" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1724" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1725" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1726" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1727" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1728" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1729" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1730" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1731" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1732" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1733" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1734" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1735" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1736" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1737" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1738" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1739" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1740" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1741" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1742" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1743" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1744" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1745" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1746" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1747" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1748" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1749" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1750" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1751" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1752" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1753" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1754" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1755" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1756" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1757" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1758" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1759" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1760" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1761" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1762" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1763" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1764" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1765" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1766" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1767" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1768" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1769" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1770" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1771" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1772" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1773" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1774" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1775" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1776" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1777" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1778" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1779" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1780" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1781" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1782" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1783" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1784" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1785" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1786" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1787" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1788" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1789" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1790" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1791" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1792" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1793" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1794" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1795" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1796" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1797" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1798" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1799" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1800" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1801" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1802" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1803" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1804" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1805" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1806" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1807" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1808" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1809" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1810" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1811" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1812" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1813" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1814" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1815" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1816" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1817" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1818" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1819" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1820" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1821" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1822" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1823" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1824" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1825" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1826" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1827" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1828" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1829" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1830" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1831" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1832" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1833" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1834" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1835" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1836" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1837" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1838" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1839" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1840" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1841" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1842" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1843" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1844" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1845" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1846" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1847" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1848" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1849" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1850" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1851" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1852" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1853" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1854" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1855" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1856" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1857" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1858" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1859" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1860" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1861" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1862" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1863" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1864" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1865" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1866" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1867" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1868" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1869" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1870" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1871" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1872" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1873" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1874" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1875" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1876" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1877" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1878" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1879" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1880" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1881" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1882" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1883" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1884" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1885" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1886" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1887" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1888" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1889" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1890" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1891" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1892" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1893" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1894" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1895" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1896" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1897" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1898" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1899" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1900" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1901" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1902" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1903" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1904" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1905" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1906" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1907" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1908" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1909" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1910" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1911" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1912" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1913" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1914" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1915" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1916" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1917" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1918" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1919" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1920" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1921" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1922" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1923" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1924" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1925" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1926" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1927" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1928" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1929" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1930" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1931" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1932" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="1933" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A3:AS1933" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A3:AS1933" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="12">
+      <filters>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="15">
+      <filters>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="19">
+      <filters>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="23">
+      <filters>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="25">
+      <filters>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="B4:AR471">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>